--- a/08.correlation/DGCA/CTRL_CRC/table/summary.xlsx
+++ b/08.correlation/DGCA/CTRL_CRC/table/summary.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\multi-CRC-fungi\08.correlation\DGCA\CTRL_CRC\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07491B3-4A75-4D63-8CE3-3EDC9571B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAA758-68BE-49F0-B6AD-6A71F98F2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual-cutoff2-network" sheetId="1" r:id="rId1"/>
     <sheet name="manual-cutoff3-network" sheetId="2" r:id="rId2"/>
     <sheet name="manual-cutoff2-feature_name" sheetId="3" r:id="rId3"/>
     <sheet name="manual-cutoff3-feature_name" sheetId="4" r:id="rId4"/>
+    <sheet name="ALL SEL BAC" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'manual-cutoff2-feature_name'!$A$1:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'manual-cutoff2-feature_name'!$A$1:$H$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'manual-cutoff3-feature_name'!$A$1:$H$54</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="117">
   <si>
     <t>Gene1</t>
   </si>
@@ -351,11 +363,58 @@
     <t>zScore_rank</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Bifidobacterium longum</t>
+  </si>
+  <si>
+    <t>Ruminococcus bicirculans</t>
+  </si>
+  <si>
+    <t>Bifidobacterium bifidum</t>
+  </si>
+  <si>
+    <t>Bifidobacterium catenulatum</t>
+  </si>
+  <si>
+    <t>PATHOGEN</t>
+  </si>
+  <si>
+    <t>PATHOGEN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBIOTIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusobacterium nucleatum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parvimonas micra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemella morbillorum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anaerostipes hadrus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debaryomyces hansenii</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1869,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
@@ -11343,7 +11402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17436,11 +17495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17537,7 +17597,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -17621,7 +17681,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -17677,7 +17737,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -17705,7 +17765,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -17845,7 +17905,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -17957,7 +18017,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -18041,7 +18101,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -18069,7 +18129,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -18097,7 +18157,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -18125,7 +18185,7 @@
         <v>Euk_En</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -18293,7 +18353,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -18321,7 +18381,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -18349,7 +18409,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -18377,7 +18437,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -18433,7 +18493,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -18461,7 +18521,7 @@
         <v>Euk_En</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -18489,7 +18549,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -18517,7 +18577,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -18545,7 +18605,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -18573,7 +18633,7 @@
         <v>Euk_En</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -18601,7 +18661,7 @@
         <v>Euk_En</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -18629,7 +18689,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -18657,7 +18717,7 @@
         <v>Euk_En</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -18713,7 +18773,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -18769,7 +18829,7 @@
         <v>Bac_De</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -18825,7 +18885,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -18852,7 +18912,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -18880,7 +18940,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -18936,7 +18996,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -18961,7 +19021,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -18986,7 +19046,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -19011,7 +19071,7 @@
         <v>Euk_De</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -19086,7 +19146,7 @@
         <v>Bac_En</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -19136,17 +19196,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H61" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Bacteria"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20689,7 +20756,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(A49, 'manual-cutoff2-feature_name'!A:B,2,FALSE)</f>
@@ -20883,4 +20950,275 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C84788F-A007-4197-ADEC-FF95230A8833}">
+  <dimension ref="A2:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition descending="1" ref="B4:B32"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>